--- a/Final Scripts/SAARs in freq peptides of species.xlsx
+++ b/Final Scripts/SAARs in freq peptides of species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galr\Documents\GitHub\proteome-playground\Final Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C797B1-DE26-4FB4-A86D-789EE8F6DCF5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD93B87-C783-401C-8CCC-CA22898D64C4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="2" xr2:uid="{6BCEA97E-8A9D-4F0A-AD41-326021D98ABE}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Arabidopsis Thaliana (arabidopsis)</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t xml:space="preserve">Homo Sapiens (human)                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabidopsis Thaliana (arabidopsis)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oryza Sativa (rice)                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macaca Mulatta (rhesus monkey)      </t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1044,82 +1053,91 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$1:$A$25</c:f>
+              <c:f>Sheet3!$A$1:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>Arabidopsis Thaliana (arabidopsis)  </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oryza Sativa (rice)                 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Saccharomyces Cerevisiae (yeast)    </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Candida Glabrata (haploid yeast)    </c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Caenorhabditis Elegans (worm)       </c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Biomphalaria Glabrata (mollusca)    </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Ciona Intestinalis (sea squirt)     </c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Drosophila Melanogaster (fly)       </c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Anopheles Gambiae (mosquito)        </c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Apis Mellifera (bee)                </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Tribolium Castaneum (beetle)        </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Danio Rerio (zebrafish)             </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Takifugu Rubripes (fugu)            </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Tetraodon Nigroviridis (pufferfish) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Gasterosteus Aculeatus (stickleback)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>Oryzias Latipes (Japanese Medaka)   </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>Anolis Carolinensis (lizard)        </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>Xenopus Tropicalis (frog)           </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>Gallus Gallus (chicken)             </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>Ornithorhynchus Anatinus (platypus) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>Bos Taurus (cow)                    </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>Canis Familiaris (dog)              </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>Rattus Norvegicus (rat)             </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
+                  <c:v>Macaca Mulatta (rhesus monkey)      </c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Monodelphis Domestica (opossum)     </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>Mus Musculus (mouse)                </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>Pan Troglodytes (chimpanzee)        </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>Homo Sapiens (human)                </c:v>
                 </c:pt>
               </c:strCache>
@@ -1127,57 +1145,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$B$25</c:f>
+              <c:f>Sheet3!$B$1:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1189,21 +1207,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1211,7 +1238,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42C4-49D6-A494-4495D3A91B35}"/>
+              <c16:uniqueId val="{00000000-7DD6-49F8-8D4E-D2EA8AC05FDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1230,82 +1257,91 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$1:$A$25</c:f>
+              <c:f>Sheet3!$A$1:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>Arabidopsis Thaliana (arabidopsis)  </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oryza Sativa (rice)                 </c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Saccharomyces Cerevisiae (yeast)    </c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Candida Glabrata (haploid yeast)    </c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Caenorhabditis Elegans (worm)       </c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Biomphalaria Glabrata (mollusca)    </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Ciona Intestinalis (sea squirt)     </c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Drosophila Melanogaster (fly)       </c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Anopheles Gambiae (mosquito)        </c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Apis Mellifera (bee)                </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Tribolium Castaneum (beetle)        </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Danio Rerio (zebrafish)             </c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Takifugu Rubripes (fugu)            </c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Tetraodon Nigroviridis (pufferfish) </c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>Gasterosteus Aculeatus (stickleback)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>Oryzias Latipes (Japanese Medaka)   </c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>Anolis Carolinensis (lizard)        </c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>Xenopus Tropicalis (frog)           </c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>Gallus Gallus (chicken)             </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>Ornithorhynchus Anatinus (platypus) </c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>Bos Taurus (cow)                    </c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>Canis Familiaris (dog)              </c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>Rattus Norvegicus (rat)             </c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
+                  <c:v>Macaca Mulatta (rhesus monkey)      </c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Monodelphis Domestica (opossum)     </c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>Mus Musculus (mouse)                </c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>Pan Troglodytes (chimpanzee)        </c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>Homo Sapiens (human)                </c:v>
                 </c:pt>
               </c:strCache>
@@ -1313,83 +1349,92 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$1:$C$25</c:f>
+              <c:f>Sheet3!$C$1:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
@@ -1397,595 +1442,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-42C4-49D6-A494-4495D3A91B35}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="533782856"/>
-        <c:axId val="533784496"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="533782856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533784496"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="533784496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ro-RO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="533782856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ro-RO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$1:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Saccharomyces Cerevisiae (yeast)    </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Candida Glabrata (haploid yeast)    </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Caenorhabditis Elegans (worm)       </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Biomphalaria Glabrata (mollusca)    </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ciona Intestinalis (sea squirt)     </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Drosophila Melanogaster (fly)       </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Anopheles Gambiae (mosquito)        </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Apis Mellifera (bee)                </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Tribolium Castaneum (beetle)        </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Danio Rerio (zebrafish)             </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Takifugu Rubripes (fugu)            </c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tetraodon Nigroviridis (pufferfish) </c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Gasterosteus Aculeatus (stickleback)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Oryzias Latipes (Japanese Medaka)   </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Anolis Carolinensis (lizard)        </c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Xenopus Tropicalis (frog)           </c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Gallus Gallus (chicken)             </c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ornithorhynchus Anatinus (platypus) </c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Bos Taurus (cow)                    </c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canis Familiaris (dog)              </c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Rattus Norvegicus (rat)             </c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Monodelphis Domestica (opossum)     </c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Mus Musculus (mouse)                </c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Pan Troglodytes (chimpanzee)        </c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Homo Sapiens (human)                </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$1:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E51C-4280-9B90-20110011A5D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet3!$A$1:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>Saccharomyces Cerevisiae (yeast)    </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Candida Glabrata (haploid yeast)    </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Caenorhabditis Elegans (worm)       </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Biomphalaria Glabrata (mollusca)    </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ciona Intestinalis (sea squirt)     </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Drosophila Melanogaster (fly)       </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Anopheles Gambiae (mosquito)        </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Apis Mellifera (bee)                </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Tribolium Castaneum (beetle)        </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Danio Rerio (zebrafish)             </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Takifugu Rubripes (fugu)            </c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Tetraodon Nigroviridis (pufferfish) </c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Gasterosteus Aculeatus (stickleback)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Oryzias Latipes (Japanese Medaka)   </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Anolis Carolinensis (lizard)        </c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Xenopus Tropicalis (frog)           </c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Gallus Gallus (chicken)             </c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Ornithorhynchus Anatinus (platypus) </c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Bos Taurus (cow)                    </c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canis Familiaris (dog)              </c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Rattus Norvegicus (rat)             </c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Monodelphis Domestica (opossum)     </c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Mus Musculus (mouse)                </c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Pan Troglodytes (chimpanzee)        </c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Homo Sapiens (human)                </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$C$1:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E51C-4280-9B90-20110011A5D5}"/>
+              <c16:uniqueId val="{00000001-7DD6-49F8-8D4E-D2EA8AC05FDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1998,11 +1455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="467365424"/>
-        <c:axId val="467363456"/>
+        <c:axId val="492868352"/>
+        <c:axId val="492868680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="467365424"/>
+        <c:axId val="492868352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,15 +1502,15 @@
             <a:endParaRPr lang="ro-RO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467363456"/>
+        <c:crossAx val="492868680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="r"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467363456"/>
+        <c:axId val="492868680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +1561,7 @@
             <a:endParaRPr lang="ro-RO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467365424"/>
+        <c:crossAx val="492868352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2116,37 +1573,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ro-RO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2304,46 +1730,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3351,509 +2737,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4444,23 +3327,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>61913</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>159543</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>578644</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>128589</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F5555F-6497-48B5-AD9E-B50FA4C566FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0ADC1DB-084E-4FC5-9ECF-058D7A74E472}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4473,42 +3356,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>169068</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>207168</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5278ACEA-0020-4DE7-BA5B-344F0DF7AFA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5278,64 +4125,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E30F45-E02D-4D80-A080-F8A3CF015750}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>31</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -5343,221 +4190,254 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B25">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>36</v>
       </c>
     </row>
